--- a/AA_Management/10_Point_Projet/Bilan livrables.xlsx
+++ b/AA_Management/10_Point_Projet/Bilan livrables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\STUF-2020\AA_Management\10_Point_Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FC3745-92FD-4C16-B8DC-A1F15D8F82AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F382F22E-EC6A-4EE7-9B3B-EBB14B58540E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15840" xr2:uid="{1322095F-D2B9-4071-ACF0-4DA5E0A36687}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{1322095F-D2B9-4071-ACF0-4DA5E0A36687}"/>
   </bookViews>
   <sheets>
     <sheet name="Livrables" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>Chassis</t>
   </si>
@@ -181,6 +181,18 @@
   </si>
   <si>
     <t>État</t>
+  </si>
+  <si>
+    <t>KPI</t>
+  </si>
+  <si>
+    <t>CCA</t>
+  </si>
+  <si>
+    <t>MIP-3D</t>
+  </si>
+  <si>
+    <t>Avancement</t>
   </si>
 </sst>
 </file>
@@ -255,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -277,6 +289,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B57B6E-859E-4B27-9FFC-0DDE0D469DF1}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,12 +615,12 @@
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="D1" s="4" t="s">
         <v>4</v>
@@ -618,14 +631,23 @@
       <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -642,8 +664,17 @@
       <c r="F3" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="11" t="s">
         <v>8</v>
@@ -660,8 +691,17 @@
       <c r="F4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="11"/>
       <c r="C5" s="4" t="s">
@@ -676,8 +716,17 @@
       <c r="F5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
         <v>11</v>
@@ -694,8 +743,17 @@
       <c r="F6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="11" t="s">
         <v>12</v>
@@ -712,8 +770,17 @@
       <c r="F7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="11"/>
       <c r="C8" s="4" t="s">
@@ -728,8 +795,17 @@
       <c r="F8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="11"/>
       <c r="C9" s="4" t="s">
@@ -744,8 +820,17 @@
       <c r="F9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
         <v>16</v>
@@ -762,8 +847,17 @@
       <c r="F10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
         <v>18</v>
@@ -780,8 +874,17 @@
       <c r="F11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
         <v>19</v>
@@ -798,8 +901,17 @@
       <c r="F12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
         <v>20</v>
@@ -816,8 +928,17 @@
       <c r="F13" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
@@ -826,8 +947,11 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>29</v>
@@ -844,8 +968,17 @@
       <c r="F15" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="11"/>
       <c r="C16" s="3" t="s">
@@ -860,8 +993,17 @@
       <c r="F16" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="11"/>
       <c r="C17" s="4" t="s">
@@ -876,8 +1018,17 @@
       <c r="F17" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
         <v>32</v>
@@ -894,8 +1045,17 @@
       <c r="F18" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="11" t="s">
         <v>33</v>
@@ -912,8 +1072,17 @@
       <c r="F19" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="11"/>
       <c r="C20" s="4" t="s">
@@ -928,8 +1097,17 @@
       <c r="F20" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
         <v>36</v>
@@ -946,8 +1124,17 @@
       <c r="F21" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
         <v>38</v>
@@ -964,8 +1151,17 @@
       <c r="F22" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>2</v>
       </c>
@@ -974,8 +1170,11 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
         <v>40</v>
@@ -992,8 +1191,17 @@
       <c r="F24" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="3" t="s">
         <v>41</v>
@@ -1010,8 +1218,17 @@
       <c r="F25" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="3" t="s">
         <v>42</v>
@@ -1028,8 +1245,17 @@
       <c r="F26" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="3" t="s">
         <v>43</v>
@@ -1046,8 +1272,17 @@
       <c r="F27" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="3" t="s">
         <v>44</v>
@@ -1064,8 +1299,17 @@
       <c r="F28" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="3" t="s">
         <v>45</v>
@@ -1082,8 +1326,17 @@
       <c r="F29" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>46</v>
       </c>
@@ -1099,8 +1352,17 @@
       <c r="F30" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>47</v>
       </c>
@@ -1116,8 +1378,17 @@
       <c r="F31" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>48</v>
       </c>
@@ -1133,8 +1404,17 @@
       <c r="F32" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>3</v>
       </c>
@@ -1143,8 +1423,11 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="3" t="s">
         <v>21</v>
@@ -1161,8 +1444,17 @@
       <c r="F34" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="12" t="s">
         <v>22</v>
@@ -1179,8 +1471,17 @@
       <c r="F35" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="12"/>
       <c r="C36" s="4" t="s">
@@ -1195,8 +1496,17 @@
       <c r="F36" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="3" t="s">
         <v>25</v>
@@ -1213,8 +1523,17 @@
       <c r="F37" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="3" t="s">
         <v>27</v>
@@ -1231,8 +1550,17 @@
       <c r="F38" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="3" t="s">
         <v>28</v>
@@ -1249,18 +1577,56 @@
       <c r="F39" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="13">
+        <f>SUM(D3:D39)/34</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="E41" s="13">
+        <f>SUM(E3:E39)/34</f>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="F41" s="13">
+        <f>SUM(F3:F39)/34</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="13">
+        <f>SUM(G3:G39)/34</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="13">
+        <f>SUM(H3:H39)/34</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="13">
+        <f>SUM(I3:I39)/34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>1</v>
       </c>
@@ -1273,7 +1639,17 @@
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B19:B20"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:F39">
+  <conditionalFormatting sqref="D3:I39">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:I41">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1284,7 +1660,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:F39" xr:uid="{EE06A76A-42E5-486D-B126-2B3913C56B33}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:I39" xr:uid="{EE06A76A-42E5-486D-B126-2B3913C56B33}">
       <formula1>$A$46:$A$47</formula1>
     </dataValidation>
   </dataValidations>

--- a/AA_Management/10_Point_Projet/Bilan livrables.xlsx
+++ b/AA_Management/10_Point_Projet/Bilan livrables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\STUF-2020\AA_Management\10_Point_Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F382F22E-EC6A-4EE7-9B3B-EBB14B58540E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A106D534-053F-4112-8C51-C0C7DF936A5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{1322095F-D2B9-4071-ACF0-4DA5E0A36687}"/>
   </bookViews>
@@ -283,13 +283,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,7 +607,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -676,17 +676,17 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -703,15 +703,15 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="11"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -735,10 +735,10 @@
         <v>11</v>
       </c>
       <c r="D6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -782,7 +782,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
@@ -807,15 +807,15 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -839,10 +839,10 @@
         <v>17</v>
       </c>
       <c r="D10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -893,10 +893,10 @@
         <v>19</v>
       </c>
       <c r="D12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -980,7 +980,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="4" t="s">
         <v>31</v>
       </c>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1084,7 +1084,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="11"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="4" t="s">
         <v>35</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -1321,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -1370,10 +1370,10 @@
         <v>47</v>
       </c>
       <c r="D31" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -1483,7 +1483,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
-      <c r="B36" s="12"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="4" t="s">
         <v>24</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>28</v>
       </c>
       <c r="D39" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="4">
         <v>0</v>
@@ -1591,28 +1591,28 @@
       <c r="A41" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="13">
-        <f>SUM(D3:D39)/34</f>
-        <v>0.47058823529411764</v>
-      </c>
-      <c r="E41" s="13">
-        <f>SUM(E3:E39)/34</f>
-        <v>0.14705882352941177</v>
-      </c>
-      <c r="F41" s="13">
-        <f>SUM(F3:F39)/34</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="13">
-        <f>SUM(G3:G39)/34</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="13">
-        <f>SUM(H3:H39)/34</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="13">
-        <f>SUM(I3:I39)/34</f>
+      <c r="D41" s="11">
+        <f t="shared" ref="D41:I41" si="0">SUM(D3:D39)/34</f>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="E41" s="11">
+        <f t="shared" si="0"/>
+        <v>0.44117647058823528</v>
+      </c>
+      <c r="F41" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/AA_Management/10_Point_Projet/Bilan livrables.xlsx
+++ b/AA_Management/10_Point_Projet/Bilan livrables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\STUF-2020\AA_Management\10_Point_Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A106D534-053F-4112-8C51-C0C7DF936A5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389AD073-3FAB-4ECE-A868-89A4B2CCACF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{1322095F-D2B9-4071-ACF0-4DA5E0A36687}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="55">
   <si>
     <t>Chassis</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Avancement</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -223,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +257,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -267,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -285,10 +294,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B57B6E-859E-4B27-9FFC-0DDE0D469DF1}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,7 +691,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -703,7 +718,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="12"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
@@ -755,7 +770,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -782,7 +797,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="12"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
@@ -807,7 +822,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
@@ -953,7 +968,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -980,12 +995,12 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="12"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -1005,7 +1020,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="12"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="4" t="s">
         <v>31</v>
       </c>
@@ -1057,7 +1072,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1084,12 +1099,12 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="12"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -1116,7 +1131,7 @@
         <v>37</v>
       </c>
       <c r="D21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -1143,7 +1158,7 @@
         <v>39</v>
       </c>
       <c r="D22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
@@ -1414,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>3</v>
       </c>
@@ -1427,7 +1442,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="3" t="s">
         <v>21</v>
@@ -1435,78 +1450,78 @@
       <c r="C34" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="4">
-        <v>0</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0</v>
-      </c>
-      <c r="H34" s="4">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D34" s="12">
+        <v>1</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="12">
+        <v>0</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="4">
-        <v>0</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4">
-        <v>0</v>
-      </c>
-      <c r="H35" s="4">
-        <v>0</v>
-      </c>
-      <c r="I35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D35" s="12">
+        <v>1</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0</v>
+      </c>
+      <c r="G35" s="12">
+        <v>0</v>
+      </c>
+      <c r="H35" s="12">
+        <v>0</v>
+      </c>
+      <c r="I35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
-      <c r="B36" s="13"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="4">
-        <v>0</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4">
-        <v>0</v>
-      </c>
-      <c r="I36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D36" s="12">
+        <v>1</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="12">
+        <v>0</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0</v>
+      </c>
+      <c r="H36" s="12">
+        <v>0</v>
+      </c>
+      <c r="I36" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="3" t="s">
         <v>25</v>
@@ -1514,26 +1529,26 @@
       <c r="C37" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="4">
-        <v>1</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0</v>
-      </c>
-      <c r="H37" s="4">
-        <v>0</v>
-      </c>
-      <c r="I37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D37" s="12">
+        <v>1</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="12">
+        <v>0</v>
+      </c>
+      <c r="G37" s="12">
+        <v>0</v>
+      </c>
+      <c r="H37" s="12">
+        <v>0</v>
+      </c>
+      <c r="I37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="3" t="s">
         <v>27</v>
@@ -1541,26 +1556,26 @@
       <c r="C38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="4">
-        <v>0</v>
-      </c>
-      <c r="E38" s="4">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0</v>
-      </c>
-      <c r="G38" s="4">
-        <v>0</v>
-      </c>
-      <c r="H38" s="4">
-        <v>0</v>
-      </c>
-      <c r="I38" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D38" s="12">
+        <v>1</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="12">
+        <v>0</v>
+      </c>
+      <c r="G38" s="12">
+        <v>0</v>
+      </c>
+      <c r="H38" s="12">
+        <v>0</v>
+      </c>
+      <c r="I38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="3" t="s">
         <v>28</v>
@@ -1568,36 +1583,36 @@
       <c r="C39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="4">
-        <v>1</v>
-      </c>
-      <c r="E39" s="4">
-        <v>0</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0</v>
-      </c>
-      <c r="G39" s="4">
-        <v>0</v>
-      </c>
-      <c r="H39" s="4">
-        <v>0</v>
-      </c>
-      <c r="I39" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D39" s="12">
+        <v>1</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="12">
+        <v>0</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0</v>
+      </c>
+      <c r="H39" s="12">
+        <v>0</v>
+      </c>
+      <c r="I39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D41" s="11">
         <f t="shared" ref="D41:I41" si="0">SUM(D3:D39)/34</f>
-        <v>0.70588235294117652</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="E41" s="11">
-        <f t="shared" si="0"/>
-        <v>0.44117647058823528</v>
+        <f>SUM(E3:E39)/28</f>
+        <v>0.5</v>
       </c>
       <c r="F41" s="11">
         <f t="shared" si="0"/>
@@ -1615,19 +1630,36 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="10">
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
+        <v>0</v>
+      </c>
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1639,17 +1671,7 @@
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B19:B20"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:I39">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF0000"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:I41">
+  <conditionalFormatting sqref="D34:I39 D41:I41 D24:I32 D15:I22 D3:I13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1659,9 +1681,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:I39" xr:uid="{EE06A76A-42E5-486D-B126-2B3913C56B33}">
-      <formula1>$A$46:$A$47</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:I33 L41:L47" xr:uid="{EE06A76A-42E5-486D-B126-2B3913C56B33}">
+      <formula1>$A$47:$A$48</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D34:I39" xr:uid="{FA0C25B9-142F-4149-9A2C-4C03FC3F989F}">
+      <formula1>$A$46:$A$48</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AA_Management/10_Point_Projet/Bilan livrables.xlsx
+++ b/AA_Management/10_Point_Projet/Bilan livrables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\STUF-2020\AA_Management\10_Point_Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389AD073-3FAB-4ECE-A868-89A4B2CCACF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FC3F09-EC44-4C1A-8058-502F707D388F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{1322095F-D2B9-4071-ACF0-4DA5E0A36687}"/>
+    <workbookView xWindow="19164" yWindow="2316" windowWidth="23040" windowHeight="12204" xr2:uid="{1322095F-D2B9-4071-ACF0-4DA5E0A36687}"/>
   </bookViews>
   <sheets>
     <sheet name="Livrables" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>Chassis</t>
   </si>
@@ -296,14 +296,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,7 +622,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,7 +691,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -718,7 +718,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="13"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
@@ -770,7 +770,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -797,7 +797,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="13"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
@@ -822,7 +822,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
@@ -968,7 +968,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -995,7 +995,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="13"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="13"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="4" t="s">
         <v>31</v>
       </c>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1099,7 +1099,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="13"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="4" t="s">
         <v>35</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -1453,7 +1453,7 @@
       <c r="D34" s="12">
         <v>1</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="13" t="s">
         <v>54</v>
       </c>
       <c r="F34" s="12">
@@ -1471,7 +1471,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -1480,7 +1480,7 @@
       <c r="D35" s="12">
         <v>1</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="13" t="s">
         <v>54</v>
       </c>
       <c r="F35" s="12">
@@ -1498,14 +1498,14 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
-      <c r="B36" s="14"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="12">
         <v>1</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="13" t="s">
         <v>54</v>
       </c>
       <c r="F36" s="12">
@@ -1532,7 +1532,7 @@
       <c r="D37" s="12">
         <v>1</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="13" t="s">
         <v>54</v>
       </c>
       <c r="F37" s="12">
@@ -1559,7 +1559,7 @@
       <c r="D38" s="12">
         <v>1</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="13" t="s">
         <v>54</v>
       </c>
       <c r="F38" s="12">
@@ -1586,7 +1586,7 @@
       <c r="D39" s="12">
         <v>1</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="13" t="s">
         <v>54</v>
       </c>
       <c r="F39" s="12">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E41" s="11">
         <f>SUM(E3:E39)/28</f>
-        <v>0.5</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="F41" s="11">
         <f t="shared" si="0"/>

--- a/AA_Management/10_Point_Projet/Bilan livrables.xlsx
+++ b/AA_Management/10_Point_Projet/Bilan livrables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\STUF-2020\AA_Management\10_Point_Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FC3F09-EC44-4C1A-8058-502F707D388F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CECB385-2413-44FA-BEE4-30AE3BB9437C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19164" yWindow="2316" windowWidth="23040" windowHeight="12204" xr2:uid="{1322095F-D2B9-4071-ACF0-4DA5E0A36687}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{1322095F-D2B9-4071-ACF0-4DA5E0A36687}"/>
   </bookViews>
   <sheets>
     <sheet name="Livrables" sheetId="1" r:id="rId1"/>
@@ -622,7 +622,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,7 +631,8 @@
     <col min="2" max="2" width="22.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -756,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -914,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -938,10 +939,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="4">
         <v>0</v>
@@ -981,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
@@ -1006,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
@@ -1031,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
@@ -1058,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
@@ -1085,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
@@ -1110,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
@@ -1137,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
@@ -1164,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
@@ -1612,11 +1613,11 @@
       </c>
       <c r="E41" s="11">
         <f>SUM(E3:E39)/28</f>
-        <v>0.5357142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F41" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(F3:F39)/34</f>
+        <v>0.3235294117647059</v>
       </c>
       <c r="G41" s="11">
         <f t="shared" si="0"/>

--- a/AA_Management/10_Point_Projet/Bilan livrables.xlsx
+++ b/AA_Management/10_Point_Projet/Bilan livrables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\STUF-2020\AA_Management\10_Point_Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CECB385-2413-44FA-BEE4-30AE3BB9437C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39D2F91-83D6-41C1-8B80-4EEEAAF1C6C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{1322095F-D2B9-4071-ACF0-4DA5E0A36687}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
   <si>
     <t>Chassis</t>
   </si>
@@ -622,7 +622,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1533,8 +1533,8 @@
       <c r="D37" s="12">
         <v>1</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>54</v>
+      <c r="E37" s="13">
+        <v>1</v>
       </c>
       <c r="F37" s="12">
         <v>0</v>
@@ -1612,8 +1612,8 @@
         <v>0.94117647058823528</v>
       </c>
       <c r="E41" s="11">
-        <f>SUM(E3:E39)/28</f>
-        <v>0.5714285714285714</v>
+        <f>SUM(E3:E39)/29</f>
+        <v>0.58620689655172409</v>
       </c>
       <c r="F41" s="11">
         <f>SUM(F3:F39)/34</f>

--- a/AA_Management/10_Point_Projet/Bilan livrables.xlsx
+++ b/AA_Management/10_Point_Projet/Bilan livrables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\STUF-2020\AA_Management\10_Point_Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39D2F91-83D6-41C1-8B80-4EEEAAF1C6C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A585FF12-E4F7-4028-8A6B-DA46FDFDBCC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{1322095F-D2B9-4071-ACF0-4DA5E0A36687}"/>
   </bookViews>
@@ -622,7 +622,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,7 +678,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="4">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="4">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="4">
         <v>0</v>
@@ -1392,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="4">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>54</v>
       </c>
       <c r="F34" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="12">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>54</v>
       </c>
       <c r="F35" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="12">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>54</v>
       </c>
       <c r="F36" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="12">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>1</v>
       </c>
       <c r="F37" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="12">
         <v>0</v>
@@ -1564,7 +1564,7 @@
         <v>54</v>
       </c>
       <c r="F38" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="12">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>54</v>
       </c>
       <c r="F39" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="12">
         <v>0</v>
@@ -1617,11 +1617,11 @@
       </c>
       <c r="F41" s="11">
         <f>SUM(F3:F39)/34</f>
-        <v>0.3235294117647059</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="G41" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="0"/>

--- a/AA_Management/10_Point_Projet/Bilan livrables.xlsx
+++ b/AA_Management/10_Point_Projet/Bilan livrables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\STUF-2020\AA_Management\10_Point_Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A585FF12-E4F7-4028-8A6B-DA46FDFDBCC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862768EB-E404-46D5-8990-5E9A17255143}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{1322095F-D2B9-4071-ACF0-4DA5E0A36687}"/>
+    <workbookView xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15840" xr2:uid="{1322095F-D2B9-4071-ACF0-4DA5E0A36687}"/>
   </bookViews>
   <sheets>
     <sheet name="Livrables" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>Chassis</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Crashbox</t>
   </si>
   <si>
-    <t>Ergonomie</t>
-  </si>
-  <si>
     <t>Support de batterie</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
   </si>
   <si>
     <t>Circuit de carburant</t>
-  </si>
-  <si>
-    <t>Lubrification moteur</t>
   </si>
   <si>
     <t>Récupérateur de fluides</t>
@@ -619,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B57B6E-859E-4B27-9FFC-0DDE0D469DF1}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,7 +624,8 @@
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
@@ -648,13 +643,13 @@
         <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -882,13 +877,13 @@
         <v>18</v>
       </c>
       <c r="D11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -928,51 +923,49 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
+      <c r="A13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="4">
@@ -997,7 +990,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="4">
@@ -1021,7 +1014,9 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="14"/>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C17" s="4" t="s">
         <v>31</v>
       </c>
@@ -1046,11 +1041,11 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -1073,9 +1068,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="14" t="s">
-        <v>33</v>
-      </c>
+      <c r="B19" s="14"/>
       <c r="C19" s="4" t="s">
         <v>34</v>
       </c>
@@ -1083,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
@@ -1100,15 +1093,17 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="14"/>
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="C20" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
       </c>
       <c r="E20" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -1126,10 +1121,10 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -1151,44 +1146,44 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="A22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="C23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
@@ -1202,10 +1197,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="4">
         <v>0</v>
@@ -1232,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="4">
         <v>0</v>
@@ -1259,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="4">
         <v>0</v>
@@ -1286,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="4">
         <v>0</v>
@@ -1313,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
@@ -1326,7 +1321,6 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
       <c r="B29" s="3" t="s">
         <v>45</v>
       </c>
@@ -1360,10 +1354,10 @@
         <v>46</v>
       </c>
       <c r="D30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -1379,83 +1373,83 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1</v>
-      </c>
-      <c r="F31" s="4">
-        <v>1</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
-        <v>0</v>
-      </c>
-      <c r="I31" s="4">
-        <v>0</v>
-      </c>
+      <c r="A31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
       <c r="B32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1</v>
-      </c>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
-        <v>0</v>
-      </c>
-      <c r="I32" s="4">
+        <v>20</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="12">
+        <v>1</v>
+      </c>
+      <c r="G32" s="12">
+        <v>0</v>
+      </c>
+      <c r="H32" s="12">
+        <v>0</v>
+      </c>
+      <c r="I32" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="12">
+        <v>1</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="12">
+        <v>1</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0</v>
+      </c>
+      <c r="I33" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B34" s="15"/>
       <c r="C34" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D34" s="12">
         <v>1</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F34" s="12">
         <v>1</v>
@@ -1472,23 +1466,23 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="15" t="s">
-        <v>22</v>
+      <c r="B35" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D35" s="12">
         <v>1</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>54</v>
+      <c r="E35" s="13">
+        <v>1</v>
       </c>
       <c r="F35" s="12">
         <v>1</v>
       </c>
       <c r="G35" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="12">
         <v>0</v>
@@ -1499,15 +1493,17 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
-      <c r="B36" s="15"/>
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C36" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D36" s="12">
         <v>1</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F36" s="12">
         <v>1</v>
@@ -1525,22 +1521,22 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D37" s="12">
         <v>1</v>
       </c>
-      <c r="E37" s="13">
-        <v>1</v>
+      <c r="E37" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="F37" s="12">
         <v>1</v>
       </c>
       <c r="G37" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="12">
         <v>0</v>
@@ -1549,118 +1545,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="12">
-        <v>1</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="12">
-        <v>1</v>
-      </c>
-      <c r="G38" s="12">
-        <v>0</v>
-      </c>
-      <c r="H38" s="12">
-        <v>0</v>
-      </c>
-      <c r="I38" s="12">
-        <v>0</v>
-      </c>
-    </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="12">
-        <v>1</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" s="12">
-        <v>1</v>
-      </c>
-      <c r="G39" s="12">
-        <v>0</v>
-      </c>
-      <c r="H39" s="12">
-        <v>0</v>
-      </c>
-      <c r="I39" s="12">
-        <v>0</v>
-      </c>
+      <c r="A39" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="11">
+        <f>SUM(D3:D37)/32</f>
+        <v>1</v>
+      </c>
+      <c r="E39" s="11">
+        <f>SUM(E3:E37)/27</f>
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="F39" s="11">
+        <f>SUM(F3:F37)/32</f>
+        <v>0.875</v>
+      </c>
+      <c r="G39" s="11">
+        <f t="shared" ref="G39:I39" si="0">SUM(G3:G37)/32</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H39" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="11">
-        <f t="shared" ref="D41:I41" si="0">SUM(D3:D39)/34</f>
-        <v>0.94117647058823528</v>
-      </c>
-      <c r="E41" s="11">
-        <f>SUM(E3:E39)/29</f>
-        <v>0.58620689655172409</v>
-      </c>
-      <c r="F41" s="11">
-        <f>SUM(F3:F39)/34</f>
-        <v>0.82352941176470584</v>
-      </c>
-      <c r="G41" s="11">
-        <f t="shared" si="0"/>
-        <v>2.9411764705882353E-2</v>
-      </c>
-      <c r="H41" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L42" s="4"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L44" s="4"/>
+      <c r="A44" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>49</v>
+      <c r="A45" s="9">
+        <v>0</v>
       </c>
       <c r="L45" s="4"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="9">
-        <v>0</v>
-      </c>
-      <c r="L47" s="4"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="10">
+      <c r="A46" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1668,11 +1610,11 @@
   <mergeCells count="5">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
-  <conditionalFormatting sqref="D34:I39 D41:I41 D24:I32 D15:I22 D3:I13">
+  <conditionalFormatting sqref="D32:I37 D14:I21 D3:I12 D39:I39 D23:I30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1683,11 +1625,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:I33 L41:L47" xr:uid="{EE06A76A-42E5-486D-B126-2B3913C56B33}">
-      <formula1>$A$47:$A$48</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L45 D3:I31" xr:uid="{EE06A76A-42E5-486D-B126-2B3913C56B33}">
+      <formula1>$A$45:$A$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D34:I39" xr:uid="{FA0C25B9-142F-4149-9A2C-4C03FC3F989F}">
-      <formula1>$A$46:$A$48</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32:I37" xr:uid="{FA0C25B9-142F-4149-9A2C-4C03FC3F989F}">
+      <formula1>$A$44:$A$46</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
